--- a/com soc project item list.xlsx
+++ b/com soc project item list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B55A89-6781-48FC-ADC3-78FDFE0CCB5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAA19A5-33B5-4527-8003-B4B869EF2245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{271B9874-6F30-409B-9456-543E22CCCC14}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Item</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Raspberry Pi</t>
   </si>
   <si>
-    <t>https://thepihut.com/products/raspberry-pi-4-model-b?variant=31994565689406</t>
-  </si>
-  <si>
     <t>Price (£)</t>
   </si>
   <si>
@@ -105,10 +102,22 @@
     <t>Power supply (rpi)</t>
   </si>
   <si>
-    <t>external power supply for servos</t>
-  </si>
-  <si>
-    <t>(servo team working on it)</t>
+    <t>servo controller</t>
+  </si>
+  <si>
+    <t>servo controller power supply</t>
+  </si>
+  <si>
+    <t>https://thepihut.com/products/raspberry-pi-4-model-b?variant=20064052740158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.adafruit.com/product/815 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/Adapter-aifulo-Universal-Adapters-Speakers/dp/B08CZ9VTSH/ref=sr_1_3?dchild=1&amp;keywords=2.1mm+DC+jack+5v+10A&amp;qid=1601824635&amp;sr=8-3 </t>
+  </si>
+  <si>
+    <t>(max is £250)</t>
   </si>
 </sst>
 </file>
@@ -471,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989C9BC2-E859-4B96-93CA-4271D2F56DEB}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +492,7 @@
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,134 +500,150 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>3.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>5.49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C5">
         <v>5.69</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <f>30.98*2</f>
         <v>61.96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <f>26.9*2</f>
         <v>53.8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C9">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C10">
         <v>6.99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C13">
-        <f>SUM(C2:C12)</f>
-        <v>245.88</v>
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>SUM(C2:C13)</f>
+        <v>249.82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -633,27 +658,14 @@
     <hyperlink ref="B9" r:id="rId8" xr:uid="{A3C68047-7FD2-4F64-81C1-C5742DFCCB14}"/>
     <hyperlink ref="B10" r:id="rId9" display="https://www.amazon.co.uk/Adhesive-Bumpers-Cylindrical-Hemispherical-Trapezoid/dp/B01M7OAWNU/ref=sr_1_1_sspa?dchild=1&amp;keywords=rubber+sticky+pads&amp;qid=1593116519&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzOUhTTExWOUpKSkg2JmVuY3J5cHRlZElkPUEwNDgxODkzMlNIQUtSUFlaN1dLOCZlbmNyeXB0ZWRBZElkPUEwODU2NDQwMkNQOUIxWFZUVjFaTyZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{4B2DA3D2-EC5A-45AF-8D3A-70181F50DAB8}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{659CD796-24D1-4460-9094-2A793FB364C6}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{77A8A5F4-79B9-4DBF-A178-FE862A73271E}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{5F87403A-1B5E-41F2-8C5E-B0ACF273A5FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100483669698DCA844CA7545CF43B238D2A" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f54f811e8f98227c391c2698f866d306">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f49a03d3-3169-468e-8ee7-d702ca896f8a" xmlns:ns4="5ea668c2-da65-43a3-bf29-f7f0ae851e82" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d9537832b84e713235f079bc6825cfc8" ns3:_="" ns4:_="">
     <xsd:import namespace="f49a03d3-3169-468e-8ee7-d702ca896f8a"/>
@@ -852,10 +864,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE4B34EC-70B0-42E4-8030-61B0429E2475}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77AA7CD8-2A07-470C-964B-E42C15ACCB6F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f49a03d3-3169-468e-8ee7-d702ca896f8a"/>
+    <ds:schemaRef ds:uri="5ea668c2-da65-43a3-bf29-f7f0ae851e82"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -878,20 +916,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77AA7CD8-2A07-470C-964B-E42C15ACCB6F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE4B34EC-70B0-42E4-8030-61B0429E2475}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f49a03d3-3169-468e-8ee7-d702ca896f8a"/>
-    <ds:schemaRef ds:uri="5ea668c2-da65-43a3-bf29-f7f0ae851e82"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>